--- a/data/trans_dic/P10_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,31%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>86,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>86,88%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,58; 90,01</t>
+          <t>84,91; 90,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,36; 90,31</t>
+          <t>82,79; 90,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,53; 87,55</t>
+          <t>82,78; 87,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,67; 89,6</t>
+          <t>84,15; 89,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,46; 88,22</t>
+          <t>84,44; 88,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,25; 88,93</t>
+          <t>84,4; 88,91</t>
         </is>
       </c>
     </row>
@@ -686,27 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>78,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,3%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,2; 88,51</t>
+          <t>81,86; 88,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,98; 89,99</t>
+          <t>82,26; 89,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,25; 81,64</t>
+          <t>74,32; 81,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,01; 85,44</t>
+          <t>78,21; 85,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,28; 84,04</t>
+          <t>79,3; 84,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,67; 86,66</t>
+          <t>81,46; 86,9</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>71,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>74,07%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,24; 77,99</t>
+          <t>57,17; 79,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,01; 83,16</t>
+          <t>59,81; 84,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,18; 78,15</t>
+          <t>65,07; 78,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,17; 79,12</t>
+          <t>63,17; 79,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,48; 77,22</t>
+          <t>63,87; 76,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,09; 78,98</t>
+          <t>66,09; 79,99</t>
         </is>
       </c>
     </row>
@@ -841,22 +842,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 86,53</t>
+          <t>82,06; 86,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,16; 87,88</t>
+          <t>82,39; 87,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,79; 82,88</t>
+          <t>78,84; 82,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,54; 85,08</t>
+          <t>81,16; 85,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,11; 84,28</t>
+          <t>81,12; 84,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,56; 86,06</t>
+          <t>82,62; 86,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>688.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1276.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1437212</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1436213</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1526476</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1571669</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2963688</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3007882</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1392522; 1478088</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1368205; 1489929</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1482580; 1571693</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1522627; 1622060</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2897266; 3026027</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2922017; 3077914</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>966.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>828.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1185862</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1189848</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1101043</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1141625</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2286905</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2331472</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1135106; 1223818</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1130374; 1234318</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1047805; 1148109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1088220; 1191552</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2217567; 2354949</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2252777; 2403166</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>296066</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>320212</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>295770</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>298049</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>591836</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>618261</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>241729; 336252</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>252883; 356704</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>268013; 325017</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>260193; 326829</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>533118; 638466</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>551665; 667673</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1315.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2468.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2919140</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2946273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2923289</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3011342</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5842429</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5957615</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2830825; 2991824</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2841943; 3034546</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2848279; 2995261</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2932078; 3084251</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5728712; 5939556</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5834876; 6073992</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>